--- a/rop/partido_politico.xlsx
+++ b/rop/partido_politico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="213">
   <si>
     <t>N°</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Información</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>province</t>
+    <t>Organizacion</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
   <si>
     <t>DEMOCRATA VERDE</t>
@@ -37,237 +37,246 @@
     <t>FE EN EL PERU</t>
   </si>
   <si>
+    <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
+  </si>
+  <si>
+    <t>PARTIDO DEMOCRATICO PERU UNIDO</t>
+  </si>
+  <si>
+    <t>PARTIDO POLITICO PRIN</t>
+  </si>
+  <si>
+    <t>PERU MODERNO</t>
+  </si>
+  <si>
+    <t>PRIMERO LA GENTE - COMUNIDAD, ECOLOGIA, LIBERTAD Y PROGRESO</t>
+  </si>
+  <si>
+    <t>ACCION POPULAR  Fecha de Inscripción: 04/08/2004</t>
+  </si>
+  <si>
+    <t>ALIANZA PARA EL PROGRESO  Fecha de Inscripción: 12/02/2008</t>
+  </si>
+  <si>
+    <t>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL  Fecha de Inscripción: 10/05/2017</t>
+  </si>
+  <si>
+    <t>FUERZA POPULAR  Fecha de Inscripción: 09/03/2010</t>
+  </si>
+  <si>
+    <t>JUNTOS POR EL PERU  Fecha de Inscripción: 23/11/2009</t>
+  </si>
+  <si>
+    <t>PARTIDO DEMOCRATICO SOMOS PERU  Fecha de Inscripción: 22/11/2004</t>
+  </si>
+  <si>
+    <t>PARTIDO FRENTE DE LA ESPERANZA 2021  Fecha de Inscripción: 16/09/2021</t>
+  </si>
+  <si>
+    <t>PARTIDO MORADO  Fecha de Inscripción: 01/03/2019</t>
+  </si>
+  <si>
+    <t>PARTIDO PATRIOTICO DEL PERU  Fecha de Inscripción: 29/03/2022</t>
+  </si>
+  <si>
+    <t>PARTIDO POLITICO NACIONAL PERU LIBRE  Fecha de Inscripción: 15/01/2016</t>
+  </si>
+  <si>
+    <t>PODEMOS PERU  Fecha de Inscripción: 10/01/2018</t>
+  </si>
+  <si>
+    <t>RENOVACION POPULAR  Fecha de Inscripción: 07/12/2004</t>
+  </si>
+  <si>
+    <t>AGRUPACION INDEPENDIENTE SI CUMPLE</t>
+  </si>
+  <si>
+    <t>ALIANZA PARA EL PROGRESO</t>
+  </si>
+  <si>
+    <t>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</t>
+  </si>
+  <si>
+    <t>CAMBIO RADICAL</t>
+  </si>
+  <si>
+    <t>CON FUERZA PERU</t>
+  </si>
+  <si>
+    <t>DEMOCRACIA DIRECTA</t>
+  </si>
+  <si>
+    <t>DESPERTAR NACIONAL</t>
+  </si>
+  <si>
+    <t>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</t>
+  </si>
+  <si>
+    <t>FONAVISTAS DEL PERU</t>
+  </si>
+  <si>
+    <t>FRENTE ESPERANZA</t>
+  </si>
+  <si>
+    <t>FRENTE INDEPENDIENTE MORALIZADOR</t>
+  </si>
+  <si>
     <t>FRENTE POPULAR AGRICOLA FIA DEL PERU - FREPAP</t>
   </si>
   <si>
-    <t>PARTIDO DEMOCRATICO PERU UNIDO</t>
+    <t>FUERZA DEMOCRATICA</t>
+  </si>
+  <si>
+    <t>FUERZA NACIONAL</t>
+  </si>
+  <si>
+    <t>JUSTICIA, TECNOLOGIA, ECOLOGIA</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO NUEVA IZQUIERDA</t>
+  </si>
+  <si>
+    <t>NUEVA MAYORIA</t>
+  </si>
+  <si>
+    <t>PARTICIPACION POPULAR</t>
+  </si>
+  <si>
+    <t>PARTIDO APRISTA PERUANO</t>
+  </si>
+  <si>
+    <t>PARTIDO DESCENTRALISTA FUERZA SOCIAL</t>
+  </si>
+  <si>
+    <t>PARTIDO JUSTICIA NACIONAL</t>
+  </si>
+  <si>
+    <t>PARTIDO MOVIMIENTO HUMANISTA PERUANO</t>
+  </si>
+  <si>
+    <t>PARTIDO NACIONALISTA PERUANO</t>
+  </si>
+  <si>
+    <t>PARTIDO POLITICO ADELANTE</t>
+  </si>
+  <si>
+    <t>PARTIDO POLITICO CONTIGO</t>
+  </si>
+  <si>
+    <t>PARTIDO POLITICO ORDEN</t>
+  </si>
+  <si>
+    <t>PARTIDO POPULAR CRISTIANO - PPC</t>
+  </si>
+  <si>
+    <t>PARTIDO POR LA DEMOCRACIA SOCIAL - COMPROMISO PERU</t>
+  </si>
+  <si>
+    <t>PARTIDO RECONSTRUCCION DEMOCRATICA</t>
+  </si>
+  <si>
+    <t>PARTIDO RENACIMIENTO ANDINO</t>
+  </si>
+  <si>
+    <t>PARTIDO SOCIALISTA</t>
+  </si>
+  <si>
+    <t>PERU AHORA</t>
+  </si>
+  <si>
+    <t>PERU NACION</t>
+  </si>
+  <si>
+    <t>PERU PATRIA SEGURA</t>
+  </si>
+  <si>
+    <t>PERU POSIBLE</t>
+  </si>
+  <si>
+    <t>PROGRESANDO PERU</t>
+  </si>
+  <si>
+    <t>PROGRESEMOS PERU</t>
+  </si>
+  <si>
+    <t>PROYECTO PAIS</t>
+  </si>
+  <si>
+    <t>RENACIMIENTO UNIDO NACIONAL</t>
+  </si>
+  <si>
+    <t>RENOVACION NACIONAL</t>
+  </si>
+  <si>
+    <t>RESURGIMIENTO PERUANO</t>
+  </si>
+  <si>
+    <t>TODOS POR EL PERU</t>
+  </si>
+  <si>
+    <t>UNION POR EL PERU</t>
+  </si>
+  <si>
+    <t>VAMOS PERU</t>
+  </si>
+  <si>
+    <t>VICTORIA NACIONAL</t>
+  </si>
+  <si>
+    <t>Y SE LLAMA PERU</t>
+  </si>
+  <si>
+    <t>BIEN PERUANO</t>
+  </si>
+  <si>
+    <t>CAMBIAR PARA AVANZAR</t>
+  </si>
+  <si>
+    <t>EL PUEBLO EMPRENDE</t>
+  </si>
+  <si>
+    <t>EMPECEMOS PERU</t>
+  </si>
+  <si>
+    <t>FRENTE AMPLIO PERUANO</t>
+  </si>
+  <si>
+    <t>FRENTE INTEGRADOR PATRIOTICO</t>
+  </si>
+  <si>
+    <t>FRENTE OBRERO CAMPESINO ESTUDIANTIL Y POPULAR</t>
+  </si>
+  <si>
+    <t>INSURGENCIA RENOVADORA</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO DE LIBERACION TAWANTINSUYU</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO INDEPENDIENTE NUEVA GENERACION</t>
+  </si>
+  <si>
+    <t>NACION VERDE</t>
+  </si>
+  <si>
+    <t>NUEVO PERU, POR DEMOCRACIA, SOBERANIA Y JUSTICIA</t>
+  </si>
+  <si>
+    <t>ORGULLO PERUANO</t>
+  </si>
+  <si>
+    <t>PARTIDO DEMOCRATICO EDUCA PERU</t>
+  </si>
+  <si>
+    <t>PARTIDO MANPISTA PERUANO</t>
+  </si>
+  <si>
+    <t>PARTIDO NACIONAL FAENA</t>
   </si>
   <si>
     <t>PARTIDO PATRIOTICO DEL PERU</t>
   </si>
   <si>
-    <t>PERU MODERNO</t>
-  </si>
-  <si>
-    <t>ACCION POPULAR  Fecha de Inscripción: 04/08/2004</t>
-  </si>
-  <si>
-    <t>ALIANZA PARA EL PROGRESO  Fecha de Inscripción: 12/02/2008</t>
-  </si>
-  <si>
-    <t>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL  Fecha de Inscripción: 10/05/2017</t>
-  </si>
-  <si>
-    <t>FUERZA POPULAR  Fecha de Inscripción: 09/03/2010</t>
-  </si>
-  <si>
-    <t>JUNTOS POR EL PERU  Fecha de Inscripción: 23/11/2009</t>
-  </si>
-  <si>
-    <t>PARTIDO DEMOCRATICO SOMOS PERU  Fecha de Inscripción: 22/11/2004</t>
-  </si>
-  <si>
-    <t>PARTIDO FRENTE DE LA ESPERANZA 2021  Fecha de Inscripción: 16/09/2021</t>
-  </si>
-  <si>
-    <t>PARTIDO MORADO  Fecha de Inscripción: 01/03/2019</t>
-  </si>
-  <si>
-    <t>PARTIDO POLITICO NACIONAL PERU LIBRE  Fecha de Inscripción: 15/01/2016</t>
-  </si>
-  <si>
-    <t>PODEMOS PERU  Fecha de Inscripción: 10/01/2018</t>
-  </si>
-  <si>
-    <t>RENOVACION POPULAR  Fecha de Inscripción: 07/12/2004</t>
-  </si>
-  <si>
-    <t>AGRUPACION INDEPENDIENTE SI CUMPLE</t>
-  </si>
-  <si>
-    <t>ALIANZA PARA EL PROGRESO</t>
-  </si>
-  <si>
-    <t>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</t>
-  </si>
-  <si>
-    <t>CAMBIO RADICAL</t>
-  </si>
-  <si>
-    <t>CON FUERZA PERU</t>
-  </si>
-  <si>
-    <t>DEMOCRACIA DIRECTA</t>
-  </si>
-  <si>
-    <t>DESPERTAR NACIONAL</t>
-  </si>
-  <si>
-    <t>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</t>
-  </si>
-  <si>
-    <t>FONAVISTAS DEL PERU</t>
-  </si>
-  <si>
-    <t>FRENTE ESPERANZA</t>
-  </si>
-  <si>
-    <t>FRENTE INDEPENDIENTE MORALIZADOR</t>
-  </si>
-  <si>
-    <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
-  </si>
-  <si>
-    <t>FUERZA DEMOCRATICA</t>
-  </si>
-  <si>
-    <t>FUERZA NACIONAL</t>
-  </si>
-  <si>
-    <t>JUSTICIA, TECNOLOGIA, ECOLOGIA</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO NUEVA IZQUIERDA</t>
-  </si>
-  <si>
-    <t>NUEVA MAYORIA</t>
-  </si>
-  <si>
-    <t>PARTICIPACION POPULAR</t>
-  </si>
-  <si>
-    <t>PARTIDO APRISTA PERUANO</t>
-  </si>
-  <si>
-    <t>PARTIDO DESCENTRALISTA FUERZA SOCIAL</t>
-  </si>
-  <si>
-    <t>PARTIDO JUSTICIA NACIONAL</t>
-  </si>
-  <si>
-    <t>PARTIDO MOVIMIENTO HUMANISTA PERUANO</t>
-  </si>
-  <si>
-    <t>PARTIDO NACIONALISTA PERUANO</t>
-  </si>
-  <si>
-    <t>PARTIDO POLITICO ADELANTE</t>
-  </si>
-  <si>
-    <t>PARTIDO POLITICO CONTIGO</t>
-  </si>
-  <si>
-    <t>PARTIDO POLITICO ORDEN</t>
-  </si>
-  <si>
-    <t>PARTIDO POPULAR CRISTIANO - PPC</t>
-  </si>
-  <si>
-    <t>PARTIDO POR LA DEMOCRACIA SOCIAL - COMPROMISO PERU</t>
-  </si>
-  <si>
-    <t>PARTIDO RECONSTRUCCION DEMOCRATICA</t>
-  </si>
-  <si>
-    <t>PARTIDO RENACIMIENTO ANDINO</t>
-  </si>
-  <si>
-    <t>PARTIDO SOCIALISTA</t>
-  </si>
-  <si>
-    <t>PERU AHORA</t>
-  </si>
-  <si>
-    <t>PERU NACION</t>
-  </si>
-  <si>
-    <t>PERU PATRIA SEGURA</t>
-  </si>
-  <si>
-    <t>PERU POSIBLE</t>
-  </si>
-  <si>
-    <t>PROGRESANDO PERU</t>
-  </si>
-  <si>
-    <t>PROGRESEMOS PERU</t>
-  </si>
-  <si>
-    <t>PROYECTO PAIS</t>
-  </si>
-  <si>
-    <t>RENACIMIENTO UNIDO NACIONAL</t>
-  </si>
-  <si>
-    <t>RENOVACION NACIONAL</t>
-  </si>
-  <si>
-    <t>RESURGIMIENTO PERUANO</t>
-  </si>
-  <si>
-    <t>TODOS POR EL PERU</t>
-  </si>
-  <si>
-    <t>UNION POR EL PERU</t>
-  </si>
-  <si>
-    <t>VAMOS PERU</t>
-  </si>
-  <si>
-    <t>VICTORIA NACIONAL</t>
-  </si>
-  <si>
-    <t>Y SE LLAMA PERU</t>
-  </si>
-  <si>
-    <t>BIEN PERUANO</t>
-  </si>
-  <si>
-    <t>CAMBIAR PARA AVANZAR</t>
-  </si>
-  <si>
-    <t>EL PUEBLO EMPRENDE</t>
-  </si>
-  <si>
-    <t>EMPECEMOS PERU</t>
-  </si>
-  <si>
-    <t>FRENTE AMPLIO PERUANO</t>
-  </si>
-  <si>
-    <t>FRENTE INTEGRADOR PATRIOTICO</t>
-  </si>
-  <si>
-    <t>FRENTE OBRERO CAMPESINO ESTUDIANTIL Y POPULAR</t>
-  </si>
-  <si>
-    <t>INSURGENCIA RENOVADORA</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO DE LIBERACION TAWANTINSUYU</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO INDEPENDIENTE NUEVA GENERACION</t>
-  </si>
-  <si>
-    <t>NACION VERDE</t>
-  </si>
-  <si>
-    <t>NUEVO PERU, POR DEMOCRACIA, SOBERANIA Y JUSTICIA</t>
-  </si>
-  <si>
-    <t>ORGULLO PERUANO</t>
-  </si>
-  <si>
-    <t>PARTIDO DEMOCRATICO EDUCA PERU</t>
-  </si>
-  <si>
-    <t>PARTIDO MANPISTA PERUANO</t>
-  </si>
-  <si>
-    <t>PARTIDO NACIONAL FAENA</t>
-  </si>
-  <si>
     <t>PARTIDO POLITICO DE ACCION Y OPORTUNIDAD SOCIAL</t>
   </si>
   <si>
@@ -319,55 +328,61 @@
     <t>UNION NACIONAL SOCIAL DEMOCRATICA</t>
   </si>
   <si>
-    <t>CALLE ACTUALIZAR - LIMA - LIMA - LIMA  -, 942412023  -  vlpedro2003@gmail.com  Personeros Legales  Titular  Hurtado Valdez Flor de Maria  Alterno  Bejarano Suta Octavio Erick</t>
+    <t>JR. Lampa N° 788 Int. 302 - LIMA - LIMA - LIMA  -, 942412023  -  vlpedro2003@gmail.com  Personeros Legales  Titular  Hurtado Valdez Flor de Maria  Alterno  Bejarano Suta Octavio Erick</t>
   </si>
   <si>
     <t>CALLE LOS MAGISTRADOS N° 119, URB. LOS MAGISTRADOS - LIMA - LIMA - LA MOLINA  -, 948321084  -  actualizar@gmail.com  Personeros Legales  Titular  Garcia Lazo Franco Miguel  Alterno  Villavicencio Meza Kardy</t>
   </si>
   <si>
-    <t>AV. MORRO DEL SOLAR N° 1234 - LIMA - LIMA - SANTIAGO DE SURCO  2753967, 952519868  www.frepap.org.pe  caluceh@gmail.com  Personeros Legales  Titular  Ceron Huaman Carmen Lupe  Alterno  Inca Gomez Jose Luis</t>
+    <t>JR. LAMPA N° 1049 - 1050 - LIMA - LIMA - LIMA  2753967, 952519868  www.frepap.org.pe  caluceh@gmail.com  Personeros Legales  Titular  Ceron Huaman Carmen Lupe  Alterno  Inca Gomez Jose Luis</t>
   </si>
   <si>
     <t>JR. CARABAYA N° 1159 Dpto. 810 - LIMA - LIMA - LIMA  , 993672655  https://pdperuunido.org  charliecarrascosalazar1@gmail.com  Personeros Legales  Titular  Huayhua Champi Ana Elvira  Alterno  Herrera Romero Dionicio Julio</t>
   </si>
   <si>
+    <t>ddd - LIMA - LIMA - LIMA  3659010, 999097912  www.ddd.org  correo@gmail.com  Personeros Legales  Titular  Moromisato Komesu Maribel  Alterno  Navarro Amaro Victor Augusto</t>
+  </si>
+  <si>
+    <t>JR. CARABAYA N° 420 Dpto. 2PISO - LIMA - LIMA - LIMA  , 963812914  perumoderno.org.pe  w.aragon@yahoo.com  Personeros Legales  Alterno  Chileno Ruiz Pedro</t>
+  </si>
+  <si>
+    <t>AV. ARNALDO MARQUEZ N° 837 Dpto. 305 - LIMA - LIMA - JESUS MARIA  -, 950532627  www.primerolagente.pe  a@gmail.com  Personeros Legales  Titular  Zevallos Bueno Marco Antonio  Alterno  Ato del Avellanal Carrera Manuel Antonio</t>
+  </si>
+  <si>
+    <t>AV. 9 DE DICIEMBRE (EX PASEO COLON) N° 218 - LIMA - LIMA - LIMA  3321965, 999891300  accionpopular.com.pe/  fariastella@gmail.com  Personeros Legales  Alterno  Arias Stella Castillo Fernando Luis</t>
+  </si>
+  <si>
+    <t>AV. DE LA POLICIA N° 643 - LIMA - LIMA - JESUS MARIA  2024600, 991156135  www.app.pe  personerolegal@app.pe  Personeros Legales  Titular  Gonzales Hidalgo Juan Carlos  Alterno  Loyola Vera Alejandra Sofia</t>
+  </si>
+  <si>
+    <t>AV. NAZCA N° 167 - LIMA - LIMA - JESUS MARIA  951587488, 951587488  http://www.avanzapais.org.pe/  aldo.borrero.rojas@gmail.com  Personeros Legales  Titular  Borrero Rojas Aldo Fabrizio  Alterno  Barraza Rivas Mario Nelson</t>
+  </si>
+  <si>
+    <t>AV. 9 DE DICIEMBRE N° 422 - LIMA - LIMA - LIMA  7886897, 966874944  www.fuerza2011.com/  localcentralfp@gmail.com  Personeros Legales  Titular  Takayama Jimenez Liliana Milagros  Alterno  Torres Figari Juan Carlos</t>
+  </si>
+  <si>
+    <t>AV. Arequipa N° 330 Int. 1001, referencia: Av. Arequipa N° 330, Interior N° 1001, Cercado de Lima - LIMA - LIMA - LIMA  3323579, 975081227  www.partidohumanista.org.pe/  huertassilvaj1@yahoo.com  Personeros Legales  Titular  Silva Huertas Juan</t>
+  </si>
+  <si>
+    <t>JR. TORRE DE LA MERCED N° 165-167, URB. SANTA CATALINA - LIMA - LIMA - LA VICTORIA  373 2581, 997299382  www.somosperu.pe  partidosomosperu@outlook.com  Personeros Legales  Alterno  Atencio Diaz Alexis Bryan</t>
+  </si>
+  <si>
+    <t>JR. Bolognesi N° 775 Dpto. Edificio H, Dpto. 203, referencia: Plaza Sechin - LIMA - LIMA - SAN MIGUEL  , 995172602  www.partidofrentedelaesperanza2021.pe  frenteesperanza.fe@gmail.com  Personeros Legales  Titular  Yataco Yataco Jorge Luis  Alterno  Solf Monsalve Alfredo Antonio Milagros</t>
+  </si>
+  <si>
+    <t>CALLE IGNACIO MERINO N° 375 - LIMA - LIMA - MIRAFLORES  No consigna, 996787883  www.partidomorado.pe  personerialegal@partidomorado.pe  Personeros Legales  Titular  Tello Godoy Henry Jarek  Alterno  Nuñez Gutierrez Aunis Elian</t>
+  </si>
+  <si>
     <t>CALLE LA LADERA Mz. T Lote 5, URB. SIRIUS II ETAPA - LIMA - LIMA - LA MOLINA  3659010, 999097912  https://partidopatrioticodelperu.org/  partidopatrioticodelperu.ppp@gmail.com  Personeros Legales  Titular  Lingan Padilla Julio Alberto  Alterno  Caller Gutierrez Hebert Rodolfo</t>
   </si>
   <si>
-    <t>JR. CARABAYA N° 420 Dpto. 2PISO - LIMA - LIMA - LIMA  , 963812914  perumoderno.org.pe  w.aragon@yahoo.com  Personeros Legales  Alterno  Chileno Ruiz Pedro</t>
-  </si>
-  <si>
-    <t>AV. 9 DE DICIEMBRE (EX PASEO COLON) N° 218 - LIMA - LIMA - LIMA  3321965, 999891300  accionpopular.com.pe/  fariastella@gmail.com  Personeros Legales  Alterno  Arias Stella Castillo Fernando Luis</t>
-  </si>
-  <si>
-    <t>AV. DE LA POLICIA N° 643 - LIMA - LIMA - JESUS MARIA  2024600, 991156135  www.app.pe  personerolegal@app.pe  Personeros Legales  Titular  Gonzales Hidalgo Juan Carlos  Alterno  Loyola Vera Alejandra Sofia</t>
-  </si>
-  <si>
-    <t>AV. NAZCA N° 167 - LIMA - LIMA - JESUS MARIA  951587488, 951587488  http://www.avanzapais.org.pe/  aldo.borrero.rojas@gmail.com  Personeros Legales  Titular  Borrero Rojas Aldo Fabrizio  Alterno  Barraza Rivas Mario Nelson</t>
-  </si>
-  <si>
-    <t>AV. 9 DE DICIEMBRE N° 422 - LIMA - LIMA - LIMA  7886897, 966874944  www.fuerza2011.com/  localcentralfp@gmail.com  Personeros Legales  Titular  Takayama Jimenez Liliana Milagros  Alterno  Torres Figari Juan Carlos</t>
-  </si>
-  <si>
-    <t>AV. Arequipa N° 330 Int. 1001, referencia: Av. Arequipa N° 330, Interior N° 1001, Cercado de Lima - LIMA - LIMA - LIMA  3323579, 975081227  www.partidohumanista.org.pe/  huertassilvaj1@yahoo.com  Personeros Legales  Titular  Silva Huertas Juan  Alterno  Boza Pulido Jose Antonio</t>
-  </si>
-  <si>
-    <t>JR. TORRE DE LA MERCED N° 165-167, URB. SANTA CATALINA - LIMA - LIMA - LA VICTORIA  373 2581, 997299382  www.somosperu.pe  partidosomosperu@outlook.com  Personeros Legales  Titular  Quispe Martinez David Rolando</t>
-  </si>
-  <si>
-    <t>JR. Bolognesi N° 775 Dpto. Edificio H, Dpto. 203, referencia: Plaza Sechin - LIMA - LIMA - SAN MIGUEL  , 995172602  www.partidofrentedelaesperanza2021.pe  frenteesperanza.fe@gmail.com  Personeros Legales  Titular  Yataco Yataco Jorge Luis  Alterno  Solf Monsalve Alfredo Antonio Milagros</t>
-  </si>
-  <si>
-    <t>CALLE IGNACIO MERINO N° 375 - LIMA - LIMA - MIRAFLORES  No consigna, 996787883  www.partidomorado.pe  personerialegal@partidomorado.pe  Personeros Legales  Titular  Tello Godoy Henry Jarek  Alterno  Nuñez Gutierrez Aunis Elian</t>
-  </si>
-  <si>
     <t>AV. BRASIL N° 170 Dpto. 3er piso - LIMA - LIMA - BREÑA  980839345, 964687880  anitacc25@hotmail.com  anitacc25@hotmail.com  Personeros Legales  Titular  Cordova Capucho Ana Maria  Alterno  Carrion Romero Mercedes Irene</t>
   </si>
   <si>
     <t>AV. PASEO COLON N° 323 - LIMA - LIMA - LIMA  , 999669360  www.podemosperu.pe  josemayad@hotmail.com  Personeros Legales  Titular  Amaya Dedios Jose Mercedes  Alterno  Navarrete Santillan Luis Alejandro</t>
   </si>
   <si>
-    <t>AV. ANGAMOS ESTE N° 1154 - LIMA - LIMA - SURQUILLO  225-5469, 928037519  www.solidaridadnacional.pe  renovacionpopularperu@gmail.com  Personeros Legales  Titular  Sotelo Montenegro Vicente Martin</t>
+    <t>CALLE COSTA RICA N° 157, URB. LOS PATRICIOS - LIMA - LIMA - JESUS MARIA  225-5469, 928037519  www.renovacionpopular.pe  renovacionpopularperu@gmail.com  Personeros Legales  Titular  Sotelo Montenegro Vicente Martin</t>
   </si>
   <si>
     <t>JR. LAMPA N° 974 - LIMA - LIMA - LIMA  5392235, 991433331  personerosicumple@hotmail.com  Personeros Legales  Titular  Rodriguez Diaz Daniel Alejandro  Alterno  Soveron Marquez Julio</t>
@@ -995,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,13 +1041,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1043,13 +1058,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1060,13 +1075,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1077,13 +1092,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1094,13 +1109,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1111,1645 +1126,1679 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E77" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E81" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E82" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E83" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E86" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E87" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E97" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D98" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E98" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>36</v>
       </c>
-      <c r="B103" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" t="s">
-        <v>202</v>
-      </c>
-      <c r="D103" t="s">
-        <v>203</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
         <v>207</v>
+      </c>
+      <c r="D105" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
